--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nid2-Col13a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.26949500000001</v>
+        <v>22.6828455</v>
       </c>
       <c r="H2">
-        <v>104.53899</v>
+        <v>45.365691</v>
       </c>
       <c r="I2">
-        <v>0.4288758502612203</v>
+        <v>0.3773020082873272</v>
       </c>
       <c r="J2">
-        <v>0.3474396247360552</v>
+        <v>0.3020237044219285</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.4274105</v>
+        <v>0.1949065</v>
       </c>
       <c r="N2">
-        <v>0.8548210000000001</v>
+        <v>0.389813</v>
       </c>
       <c r="O2">
-        <v>0.4422185568930271</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="P2">
-        <v>0.3984644485961792</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="Q2">
-        <v>22.34053099269751</v>
+        <v>4.42103402644575</v>
       </c>
       <c r="R2">
-        <v>89.36212397079002</v>
+        <v>17.684136105783</v>
       </c>
       <c r="S2">
-        <v>0.1896568595887868</v>
+        <v>0.1127254015987166</v>
       </c>
       <c r="T2">
-        <v>0.1384423384909156</v>
+        <v>0.09023472609604315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.26949500000001</v>
+        <v>22.6828455</v>
       </c>
       <c r="H3">
-        <v>104.53899</v>
+        <v>45.365691</v>
       </c>
       <c r="I3">
-        <v>0.4288758502612203</v>
+        <v>0.3773020082873272</v>
       </c>
       <c r="J3">
-        <v>0.3474396247360552</v>
+        <v>0.3020237044219285</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.326844</v>
+        <v>0.457463</v>
       </c>
       <c r="N3">
-        <v>0.6536879999999999</v>
+        <v>0.9149259999999999</v>
       </c>
       <c r="O3">
-        <v>0.3381678316493033</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="P3">
-        <v>0.3047087384071509</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="Q3">
-        <v>17.08397082378</v>
+        <v>10.3765625509665</v>
       </c>
       <c r="R3">
-        <v>68.33588329512</v>
+        <v>41.506250203866</v>
       </c>
       <c r="S3">
-        <v>0.1450320163295881</v>
+        <v>0.2645766066886106</v>
       </c>
       <c r="T3">
-        <v>0.1058678897259773</v>
+        <v>0.2117889783258854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.26949500000001</v>
+        <v>27.97505033333333</v>
       </c>
       <c r="H4">
-        <v>104.53899</v>
+        <v>83.925151</v>
       </c>
       <c r="I4">
-        <v>0.4288758502612203</v>
+        <v>0.4653315066976816</v>
       </c>
       <c r="J4">
-        <v>0.3474396247360552</v>
+        <v>0.5587346834238615</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2122596666666667</v>
+        <v>0.1949065</v>
       </c>
       <c r="N4">
-        <v>0.636779</v>
+        <v>0.389813</v>
       </c>
       <c r="O4">
-        <v>0.2196136114576696</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="P4">
-        <v>0.2968268129966699</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="Q4">
-        <v>11.094705585535</v>
+        <v>5.452519147793834</v>
       </c>
       <c r="R4">
-        <v>66.56823351321</v>
+        <v>32.715114886763</v>
       </c>
       <c r="S4">
-        <v>0.09418697434284531</v>
+        <v>0.1390257136640688</v>
       </c>
       <c r="T4">
-        <v>0.1031293965191622</v>
+        <v>0.1669315036566744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>83.925151</v>
       </c>
       <c r="I5">
-        <v>0.2295377733763979</v>
+        <v>0.4653315066976816</v>
       </c>
       <c r="J5">
-        <v>0.2789286845927703</v>
+        <v>0.5587346834238615</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4274105</v>
+        <v>0.457463</v>
       </c>
       <c r="N5">
-        <v>0.8548210000000001</v>
+        <v>0.9149259999999999</v>
       </c>
       <c r="O5">
-        <v>0.4422185568930271</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="P5">
-        <v>0.3984644485961792</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="Q5">
-        <v>11.95683025049517</v>
+        <v>12.79755045063767</v>
       </c>
       <c r="R5">
-        <v>71.74098150297101</v>
+        <v>76.78530270382599</v>
       </c>
       <c r="S5">
-        <v>0.1015058628949494</v>
+        <v>0.3263057930336129</v>
       </c>
       <c r="T5">
-        <v>0.1111431645039158</v>
+        <v>0.391803179767187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.97505033333333</v>
+        <v>0.8590996666666667</v>
       </c>
       <c r="H6">
-        <v>83.925151</v>
+        <v>2.577299</v>
       </c>
       <c r="I6">
-        <v>0.2295377733763979</v>
+        <v>0.01429009555050343</v>
       </c>
       <c r="J6">
-        <v>0.2789286845927703</v>
+        <v>0.01715845993358576</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.326844</v>
+        <v>0.1949065</v>
       </c>
       <c r="N6">
-        <v>0.6536879999999999</v>
+        <v>0.389813</v>
       </c>
       <c r="O6">
-        <v>0.3381678316493033</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="P6">
-        <v>0.3047087384071509</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="Q6">
-        <v>9.143477351147999</v>
+        <v>0.1674441091811667</v>
       </c>
       <c r="R6">
-        <v>54.86086410688799</v>
+        <v>1.004664655087</v>
       </c>
       <c r="S6">
-        <v>0.07762229110430566</v>
+        <v>0.004269409450340945</v>
       </c>
       <c r="T6">
-        <v>0.08499200758782914</v>
+        <v>0.00512638216692447</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.97505033333333</v>
+        <v>0.8590996666666667</v>
       </c>
       <c r="H7">
-        <v>83.925151</v>
+        <v>2.577299</v>
       </c>
       <c r="I7">
-        <v>0.2295377733763979</v>
+        <v>0.01429009555050343</v>
       </c>
       <c r="J7">
-        <v>0.2789286845927703</v>
+        <v>0.01715845993358576</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2122596666666667</v>
+        <v>0.457463</v>
       </c>
       <c r="N7">
-        <v>0.636779</v>
+        <v>0.9149259999999999</v>
       </c>
       <c r="O7">
-        <v>0.2196136114576696</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="P7">
-        <v>0.2968268129966699</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="Q7">
-        <v>5.937974858736555</v>
+        <v>0.3930063108123333</v>
       </c>
       <c r="R7">
-        <v>53.44177372862899</v>
+        <v>2.358037864874</v>
       </c>
       <c r="S7">
-        <v>0.05040961937714288</v>
+        <v>0.01002068610016248</v>
       </c>
       <c r="T7">
-        <v>0.08279351250102535</v>
+        <v>0.01203207776666129</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7109406666666667</v>
+        <v>7.4670415</v>
       </c>
       <c r="H8">
-        <v>2.132822</v>
+        <v>14.934083</v>
       </c>
       <c r="I8">
-        <v>0.005833331332203332</v>
+        <v>0.1242053054549446</v>
       </c>
       <c r="J8">
-        <v>0.007088521472311934</v>
+        <v>0.0994241897429612</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.4274105</v>
+        <v>0.1949065</v>
       </c>
       <c r="N8">
-        <v>0.8548210000000001</v>
+        <v>0.389813</v>
       </c>
       <c r="O8">
-        <v>0.4422185568930271</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="P8">
-        <v>0.3984644485961792</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="Q8">
-        <v>0.3038635058103333</v>
+        <v>1.45537492411975</v>
       </c>
       <c r="R8">
-        <v>1.823181034862</v>
+        <v>5.821499696479</v>
       </c>
       <c r="S8">
-        <v>0.002579607363605837</v>
+        <v>0.0371084506060663</v>
       </c>
       <c r="T8">
-        <v>0.002824523799826951</v>
+        <v>0.02970467018788657</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7109406666666667</v>
+        <v>7.4670415</v>
       </c>
       <c r="H9">
-        <v>2.132822</v>
+        <v>14.934083</v>
       </c>
       <c r="I9">
-        <v>0.005833331332203332</v>
+        <v>0.1242053054549446</v>
       </c>
       <c r="J9">
-        <v>0.007088521472311934</v>
+        <v>0.0994241897429612</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.326844</v>
+        <v>0.457463</v>
       </c>
       <c r="N9">
-        <v>0.6536879999999999</v>
+        <v>0.9149259999999999</v>
       </c>
       <c r="O9">
-        <v>0.3381678316493033</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="P9">
-        <v>0.3047087384071509</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="Q9">
-        <v>0.232366691256</v>
+        <v>3.4158952057145</v>
       </c>
       <c r="R9">
-        <v>1.394200147536</v>
+        <v>13.663580822858</v>
       </c>
       <c r="S9">
-        <v>0.001972645007903142</v>
+        <v>0.08709685484887832</v>
       </c>
       <c r="T9">
-        <v>0.002159934435000169</v>
+        <v>0.06971951955507463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7109406666666667</v>
+        <v>0.5687486666666667</v>
       </c>
       <c r="H10">
-        <v>2.132822</v>
+        <v>1.706246</v>
       </c>
       <c r="I10">
-        <v>0.005833331332203332</v>
+        <v>0.00946045389869948</v>
       </c>
       <c r="J10">
-        <v>0.007088521472311934</v>
+        <v>0.01135939354643794</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.2122596666666667</v>
+        <v>0.1949065</v>
       </c>
       <c r="N10">
-        <v>0.636779</v>
+        <v>0.389813</v>
       </c>
       <c r="O10">
-        <v>0.2196136114576696</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="P10">
-        <v>0.2968268129966699</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="Q10">
-        <v>0.1509040289264444</v>
+        <v>0.1108528119996667</v>
       </c>
       <c r="R10">
-        <v>1.358136260338</v>
+        <v>0.6651168719980001</v>
       </c>
       <c r="S10">
-        <v>0.001281078960694353</v>
+        <v>0.002826471743094781</v>
       </c>
       <c r="T10">
-        <v>0.002104063237484814</v>
+        <v>0.003393812307685763</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.473357</v>
+        <v>0.5687486666666667</v>
       </c>
       <c r="H11">
-        <v>24.946714</v>
+        <v>1.706246</v>
       </c>
       <c r="I11">
-        <v>0.10234500235724</v>
+        <v>0.00946045389869948</v>
       </c>
       <c r="J11">
-        <v>0.08291142807633489</v>
+        <v>0.01135939354643794</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4274105</v>
+        <v>0.457463</v>
       </c>
       <c r="N11">
-        <v>0.8548210000000001</v>
+        <v>0.9149259999999999</v>
       </c>
       <c r="O11">
-        <v>0.4422185568930271</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="P11">
-        <v>0.3984644485961792</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="Q11">
-        <v>5.331243752048501</v>
+        <v>0.2601814712993333</v>
       </c>
       <c r="R11">
-        <v>21.324975008194</v>
+        <v>1.561088827796</v>
       </c>
       <c r="S11">
-        <v>0.04525885924763212</v>
+        <v>0.006633982155604699</v>
       </c>
       <c r="T11">
-        <v>0.03303725647075855</v>
+        <v>0.007965581238752181</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.473357</v>
+        <v>0.5657533333333333</v>
       </c>
       <c r="H12">
-        <v>24.946714</v>
+        <v>1.69726</v>
       </c>
       <c r="I12">
-        <v>0.10234500235724</v>
+        <v>0.009410630110843735</v>
       </c>
       <c r="J12">
-        <v>0.08291142807633489</v>
+        <v>0.01129956893122519</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.326844</v>
+        <v>0.1949065</v>
       </c>
       <c r="N12">
-        <v>0.6536879999999999</v>
+        <v>0.389813</v>
       </c>
       <c r="O12">
-        <v>0.3381678316493033</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="P12">
-        <v>0.3047087384071509</v>
+        <v>0.2987670331001067</v>
       </c>
       <c r="Q12">
-        <v>4.076841895307999</v>
+        <v>0.1102690020633333</v>
       </c>
       <c r="R12">
-        <v>16.307367581232</v>
+        <v>0.6616140123800001</v>
       </c>
       <c r="S12">
-        <v>0.03460978752729067</v>
+        <v>0.002811586037819311</v>
       </c>
       <c r="T12">
-        <v>0.02526383664867524</v>
+        <v>0.003375938684892294</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,427 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.473357</v>
+        <v>0.5657533333333333</v>
       </c>
       <c r="H13">
-        <v>24.946714</v>
+        <v>1.69726</v>
       </c>
       <c r="I13">
-        <v>0.10234500235724</v>
+        <v>0.009410630110843735</v>
       </c>
       <c r="J13">
-        <v>0.08291142807633489</v>
+        <v>0.01129956893122519</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2122596666666667</v>
+        <v>0.457463</v>
       </c>
       <c r="N13">
-        <v>0.636779</v>
+        <v>0.9149259999999999</v>
       </c>
       <c r="O13">
-        <v>0.2196136114576696</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="P13">
-        <v>0.2968268129966699</v>
+        <v>0.7012329668998933</v>
       </c>
       <c r="Q13">
-        <v>2.647590599034333</v>
+        <v>0.2588112171266667</v>
       </c>
       <c r="R13">
-        <v>15.885543594206</v>
+        <v>1.55286730276</v>
       </c>
       <c r="S13">
-        <v>0.02247635558231718</v>
+        <v>0.006599044073024424</v>
       </c>
       <c r="T13">
-        <v>0.0246103349569011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>27.28148833333333</v>
-      </c>
-      <c r="H14">
-        <v>81.844465</v>
-      </c>
-      <c r="I14">
-        <v>0.22384703554817</v>
-      </c>
-      <c r="J14">
-        <v>0.2720134392567137</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.4274105</v>
-      </c>
-      <c r="N14">
-        <v>0.8548210000000001</v>
-      </c>
-      <c r="O14">
-        <v>0.4422185568930271</v>
-      </c>
-      <c r="P14">
-        <v>0.3984644485961792</v>
-      </c>
-      <c r="Q14">
-        <v>11.66039456929417</v>
-      </c>
-      <c r="R14">
-        <v>69.962367415765</v>
-      </c>
-      <c r="S14">
-        <v>0.09898931302489386</v>
-      </c>
-      <c r="T14">
-        <v>0.1083876850841767</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>27.28148833333333</v>
-      </c>
-      <c r="H15">
-        <v>81.844465</v>
-      </c>
-      <c r="I15">
-        <v>0.22384703554817</v>
-      </c>
-      <c r="J15">
-        <v>0.2720134392567137</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.326844</v>
-      </c>
-      <c r="N15">
-        <v>0.6536879999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.3381678316493033</v>
-      </c>
-      <c r="P15">
-        <v>0.3047087384071509</v>
-      </c>
-      <c r="Q15">
-        <v>8.916790772819999</v>
-      </c>
-      <c r="R15">
-        <v>53.50074463692</v>
-      </c>
-      <c r="S15">
-        <v>0.07569786663244914</v>
-      </c>
-      <c r="T15">
-        <v>0.0828848719057034</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>27.28148833333333</v>
-      </c>
-      <c r="H16">
-        <v>81.844465</v>
-      </c>
-      <c r="I16">
-        <v>0.22384703554817</v>
-      </c>
-      <c r="J16">
-        <v>0.2720134392567137</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.2122596666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.636779</v>
-      </c>
-      <c r="O16">
-        <v>0.2196136114576696</v>
-      </c>
-      <c r="P16">
-        <v>0.2968268129966699</v>
-      </c>
-      <c r="Q16">
-        <v>5.790759619803889</v>
-      </c>
-      <c r="R16">
-        <v>52.116836578235</v>
-      </c>
-      <c r="S16">
-        <v>0.04915985589082696</v>
-      </c>
-      <c r="T16">
-        <v>0.08074088226683358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.165253333333333</v>
-      </c>
-      <c r="H17">
-        <v>3.49576</v>
-      </c>
-      <c r="I17">
-        <v>0.009561007124768555</v>
-      </c>
-      <c r="J17">
-        <v>0.01161830186581401</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.4274105</v>
-      </c>
-      <c r="N17">
-        <v>0.8548210000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.4422185568930271</v>
-      </c>
-      <c r="P17">
-        <v>0.3984644485961792</v>
-      </c>
-      <c r="Q17">
-        <v>0.4980415098266667</v>
-      </c>
-      <c r="R17">
-        <v>2.98824905896</v>
-      </c>
-      <c r="S17">
-        <v>0.004228054773159101</v>
-      </c>
-      <c r="T17">
-        <v>0.004629480246585538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1.165253333333333</v>
-      </c>
-      <c r="H18">
-        <v>3.49576</v>
-      </c>
-      <c r="I18">
-        <v>0.009561007124768555</v>
-      </c>
-      <c r="J18">
-        <v>0.01161830186581401</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.326844</v>
-      </c>
-      <c r="N18">
-        <v>0.6536879999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.3381678316493033</v>
-      </c>
-      <c r="P18">
-        <v>0.3047087384071509</v>
-      </c>
-      <c r="Q18">
-        <v>0.3808560604799999</v>
-      </c>
-      <c r="R18">
-        <v>2.285136362879999</v>
-      </c>
-      <c r="S18">
-        <v>0.003233225047766521</v>
-      </c>
-      <c r="T18">
-        <v>0.003540198103965634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.165253333333333</v>
-      </c>
-      <c r="H19">
-        <v>3.49576</v>
-      </c>
-      <c r="I19">
-        <v>0.009561007124768555</v>
-      </c>
-      <c r="J19">
-        <v>0.01161830186581401</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.2122596666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.636779</v>
-      </c>
-      <c r="O19">
-        <v>0.2196136114576696</v>
-      </c>
-      <c r="P19">
-        <v>0.2968268129966699</v>
-      </c>
-      <c r="Q19">
-        <v>0.2473362841155555</v>
-      </c>
-      <c r="R19">
-        <v>2.22602655704</v>
-      </c>
-      <c r="S19">
-        <v>0.002099727303842932</v>
-      </c>
-      <c r="T19">
-        <v>0.003448623515262836</v>
+        <v>0.007923630246332899</v>
       </c>
     </row>
   </sheetData>
